--- a/data/trans_bre/P16A07-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A07-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16A07-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A07-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>842,74%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,05%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,08%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>579,15%</t>
         </is>
       </c>
     </row>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,61; 3,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,83; 1,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 1,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,35; 5,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>154,35%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>103,41%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>109,66%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>427,46%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,4; 3,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,2; 3,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,17; 2,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,87; 4,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,88; 512,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,73; 398,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,56; 568,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,81; 7542,27</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,34%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>151,95%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>102,29%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,65%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,26; 3,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,07; 7,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,42; 3,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,38; 3,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,14; 237,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,64; 365,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,47; 301,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,62; 253,14</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,67</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,91</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,02</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>295,28%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>174,34%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>238,8%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,43%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,75; 9,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,04; 8,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,7; 8,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,44; 5,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>92,53; 704,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>61,37; 368,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>101,99; 547,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,96; 165,34</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,97</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,08</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,26</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,95</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>249,25%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>173,6%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>181,4%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>119,21%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,32; 13,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,18; 14,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,95; 10,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,99; 9,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>102,13; 545,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>73,99; 332,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>69,74; 396,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>52,21; 218,91</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,9</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,25</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,7</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,76</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>141,87%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>148,45%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>339,41%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>143,56%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,06; 8,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,97; 10,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,98; 12,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,52; 7,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>52,36; 299,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>50,33; 293,1</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>176,73; 654,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>56,34; 240,3</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,21</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,91</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,11</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>201,69%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>165,08%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>224,8%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>118,12%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,29; 5,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,01; 6,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,9; 5,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,9; 5,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>125,11; 288,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>109,06; 236,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>151,89; 324,05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>75,07; 165,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A07-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A07-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>579,15%</t>
+          <t>514,05%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,35; 5,75</t>
+          <t>0,27; 5,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>427,46%</t>
+          <t>399,27%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,87; 4,79</t>
+          <t>0,55; 4,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,81; 7542,27</t>
+          <t>5,23; 6150,15</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>72,65%</t>
+          <t>71,71%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 3,94</t>
+          <t>-0,36; 3,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,62; 253,14</t>
+          <t>-11,25; 253,09</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,21</t>
+          <t>3,99</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>64,43%</t>
+          <t>101,52%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,44; 5,82</t>
+          <t>1,19; 7,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,96; 165,34</t>
+          <t>18,09; 397,51</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,95</t>
+          <t>6,82</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>119,21%</t>
+          <t>116,55%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,99; 9,68</t>
+          <t>3,83; 9,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>52,21; 218,91</t>
+          <t>50,32; 217,81</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,9</t>
+          <t>6,46</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>7,25</t>
+          <t>8,69</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>9,7</t>
+          <t>11,39</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,76</t>
+          <t>5,54</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>141,87%</t>
+          <t>172,04%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>148,45%</t>
+          <t>200,13%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>339,41%</t>
+          <t>574,66%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>143,56%</t>
+          <t>232,27%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,06; 8,77</t>
+          <t>2,22; 9,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,97; 10,47</t>
+          <t>3,92; 12,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,98; 12,76</t>
+          <t>8,01; 15,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,52; 7,82</t>
+          <t>-0,23; 10,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>52,36; 299,54</t>
+          <t>40,25; 431,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>50,33; 293,1</t>
+          <t>54,38; 506,6</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>176,73; 654,13</t>
+          <t>233,22; 1450,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>56,34; 240,3</t>
+          <t>0,22; 537,35</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,32</t>
+          <t>5,17</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,21</t>
+          <t>5,75</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,91</t>
+          <t>7,79</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,11</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>201,69%</t>
+          <t>109,64%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>165,08%</t>
+          <t>103,65%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>224,8%</t>
+          <t>194,93%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>118,12%</t>
+          <t>64,51%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0,39; 9,56</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1,09; 10,15</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3,71; 12,15</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0,49; 6,94</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-0,51; 363,22</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>10,26; 303,22</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>53,29; 464,63</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>4,56; 150,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4,32</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5,21</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4,91</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3,94</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>201,69%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>165,08%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>224,8%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>121,83%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>3,29; 5,17</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>4,01; 6,36</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>3,9; 5,94</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>2,9; 5,08</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>2,34; 5,08</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>125,11; 288,95</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>109,06; 236,09</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>151,89; 324,05</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>75,07; 165,58</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>70,59; 194,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P16A07-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A07-Edad-trans_bre.xlsx
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,21</t>
+          <t>0,6; 3,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 1,2</t>
+          <t>-0,92; 1,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 1,35</t>
+          <t>-0,75; 1,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,27; 5,24</t>
+          <t>0,23; 5,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,68</t>
+          <t>0,45; 3,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 3,44</t>
+          <t>-0,05; 3,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 2,68</t>
+          <t>-0,24; 2,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,55; 4,19</t>
+          <t>0,44; 4,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,88; 512,47</t>
+          <t>18,9; 524,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,73; 398,93</t>
+          <t>-16,72; 410,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-30,56; 568,06</t>
+          <t>-25,42; 584,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,23; 6150,15</t>
+          <t>-14,64; 6593,3</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 3,45</t>
+          <t>-0,26; 3,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,07; 7,55</t>
+          <t>1,87; 7,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,98</t>
+          <t>0,17; 3,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 3,91</t>
+          <t>-0,18; 3,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,14; 237,16</t>
+          <t>-16,24; 261,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>40,64; 365,7</t>
+          <t>35,43; 331,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,47; 301,82</t>
+          <t>0,75; 292,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,25; 253,09</t>
+          <t>-10,47; 252,73</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,75; 9,47</t>
+          <t>3,84; 9,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,04; 8,6</t>
+          <t>3,12; 8,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,7; 8,79</t>
+          <t>3,53; 8,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,19; 7,58</t>
+          <t>1,45; 7,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>92,53; 704,03</t>
+          <t>100,78; 757,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>61,37; 368,27</t>
+          <t>61,12; 408,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>101,99; 547,04</t>
+          <t>98,46; 518,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,09; 397,51</t>
+          <t>21,91; 418,85</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,32; 13,03</t>
+          <t>5,18; 12,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,18; 14,28</t>
+          <t>5,7; 14,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,95; 10,71</t>
+          <t>3,7; 10,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,83; 9,52</t>
+          <t>3,74; 9,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>102,13; 545,68</t>
+          <t>99,05; 503,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>73,99; 332,39</t>
+          <t>66,83; 326,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>69,74; 396,64</t>
+          <t>58,0; 408,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>50,32; 217,81</t>
+          <t>51,27; 215,89</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,22; 9,83</t>
+          <t>2,85; 10,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,92; 12,85</t>
+          <t>4,3; 13,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,01; 15,73</t>
+          <t>8,15; 15,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 10,38</t>
+          <t>0,5; 10,48</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>40,25; 431,94</t>
+          <t>45,27; 481,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>54,38; 506,6</t>
+          <t>60,81; 518,55</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>233,22; 1450,87</t>
+          <t>228,5; 1641,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,22; 537,35</t>
+          <t>24,44; 575,92</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,39; 9,56</t>
+          <t>0,39; 9,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,09; 10,15</t>
+          <t>1,01; 10,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,71; 12,15</t>
+          <t>3,58; 12,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,49; 6,94</t>
+          <t>0,73; 6,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 363,22</t>
+          <t>1,56; 358,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,26; 303,22</t>
+          <t>9,72; 324,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>53,29; 464,63</t>
+          <t>53,88; 498,9</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,56; 150,93</t>
+          <t>7,36; 159,77</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,29; 5,17</t>
+          <t>3,32; 5,34</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,01; 6,36</t>
+          <t>4,02; 6,26</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,9; 5,94</t>
+          <t>3,93; 5,94</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,34; 5,08</t>
+          <t>2,36; 5,04</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>125,11; 288,95</t>
+          <t>130,75; 301,93</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>109,06; 236,09</t>
+          <t>107,3; 230,64</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>151,89; 324,05</t>
+          <t>155,29; 331,8</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>70,59; 194,3</t>
+          <t>65,87; 187,79</t>
         </is>
       </c>
     </row>
